--- a/Tests to run.xlsx
+++ b/Tests to run.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="47">
   <si>
     <t>Result</t>
   </si>
@@ -124,13 +124,49 @@
   </si>
   <si>
     <t>Body</t>
+  </si>
+  <si>
+    <t>Update Appointment</t>
+  </si>
+  <si>
+    <t>Correct Comparison</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>NTY</t>
+  </si>
+  <si>
+    <t>Where we are at</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>% Fail</t>
+  </si>
+  <si>
+    <t>% NTY</t>
+  </si>
+  <si>
+    <t>% Pass</t>
+  </si>
+  <si>
+    <t>Outlook Update</t>
+  </si>
+  <si>
+    <t>It passes but when the reminder is sent outlook sets the reminder time to "none".</t>
+  </si>
+  <si>
+    <t>Ends 1 day short of number of occurrences</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +182,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,24 +226,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7D7D"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -203,21 +261,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -378,6 +421,101 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -387,62 +525,198 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
       <color rgb="FFFF7D7D"/>
     </mruColors>
   </colors>
@@ -720,590 +994,1441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
+  <dimension ref="B5:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="82.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E7" s="29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="20">
+        <f>COUNTIF(D8:D65, "NTY") + COUNTIF(D70:D127, "NTY")</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="D8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="20">
+        <f>COUNTIF(D8:D65, "PASS") + COUNTIF(D70:D127, "PASS")</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="20">
+        <f>COUNTIF(D8:D65, "FAIL") + COUNTIF(D70:D127, "FAIL")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="27">
+        <f>H8/SUM(H7:H9)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="D11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="23">
+        <f>H9/SUM(H7:H9)</f>
+        <v>9.2592592592592587E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="25">
+        <f>H7/SUM(H7:H9)</f>
+        <v>0.7407407407407407</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="D13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
+      <c r="D14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+      <c r="D15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
+      <c r="D16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="8" t="s">
+      <c r="D17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="D18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="33"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="33"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="33"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="33"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="14" t="s">
+      <c r="C45" s="39"/>
+      <c r="D45" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="E45" s="29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
+      <c r="D46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="32"/>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
+      <c r="D47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="33"/>
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
+      <c r="D48" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="33"/>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
+      <c r="D49" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="33"/>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3" t="s">
+      <c r="D50" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="C51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
+      <c r="D51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="33"/>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
+      <c r="D52" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="33"/>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
+      <c r="D53" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="33"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3" t="s">
+      <c r="D54" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="33"/>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
+      <c r="D55" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="33"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3" t="s">
+      <c r="D56" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="33"/>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3" t="s">
+      <c r="D57" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="33"/>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3" t="s">
+      <c r="D58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="33"/>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3" t="s">
+      <c r="D59" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="33"/>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3" t="s">
+      <c r="D60" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="33"/>
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3" t="s">
+      <c r="D61" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="33"/>
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3" t="s">
+      <c r="D62" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="33"/>
+      <c r="F62" s="17"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3" t="s">
+      <c r="D63" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="33"/>
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="4" t="s">
+      <c r="D64" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="33"/>
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="2"/>
+      <c r="C65" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="26" t="s">
+      <c r="D65" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="35"/>
+      <c r="F65" s="17"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="16"/>
+    </row>
+    <row r="69" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14" t="s">
+      <c r="C69" s="39"/>
+      <c r="D69" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="E69" s="29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="5" t="s">
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="11"/>
+      <c r="C70" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="16"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="3" t="s">
+      <c r="D70" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="32"/>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="11"/>
+      <c r="C71" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="3" t="s">
+      <c r="D71" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="33"/>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="11"/>
+      <c r="C72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="3" t="s">
+      <c r="D72" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="33"/>
+      <c r="F72" s="17"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="11"/>
+      <c r="C73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="3" t="s">
+      <c r="D73" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="33"/>
+      <c r="F73" s="17"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="11"/>
+      <c r="C74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="3" t="s">
+      <c r="D74" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="33"/>
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="11"/>
+      <c r="C75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="3" t="s">
+      <c r="D75" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="33"/>
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="11"/>
+      <c r="C76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="3" t="s">
+      <c r="D76" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="33"/>
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="11"/>
+      <c r="C77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="3" t="s">
+      <c r="D77" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="33"/>
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="11"/>
+      <c r="C78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="3" t="s">
+      <c r="D78" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="33"/>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="11"/>
+      <c r="C79" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="17"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="8" t="s">
+      <c r="D79" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="33"/>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="11"/>
+      <c r="C80" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="18"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="D80" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="34"/>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="39"/>
+      <c r="D81" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="11"/>
+      <c r="C82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="32"/>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="11"/>
+      <c r="C83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="33"/>
+      <c r="F83" s="17"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="11"/>
+      <c r="C84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="33"/>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="11"/>
+      <c r="C85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="33"/>
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="11"/>
+      <c r="C86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="33"/>
+      <c r="F86" s="17"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="11"/>
+      <c r="C87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="33"/>
+      <c r="F87" s="17"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="11"/>
+      <c r="C88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="33"/>
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="11"/>
+      <c r="C89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="33"/>
+      <c r="F89" s="17"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="11"/>
+      <c r="C90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="33"/>
+      <c r="F90" s="17"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="11"/>
+      <c r="C91" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="33"/>
+      <c r="F91" s="17"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="11"/>
+      <c r="C92" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" s="34"/>
+      <c r="F92" s="17"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="11"/>
+      <c r="C93" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="34"/>
+      <c r="F93" s="17"/>
+    </row>
+    <row r="94" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="28"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="17"/>
+    </row>
+    <row r="95" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" s="37"/>
+      <c r="D95" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" s="17"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="11"/>
+      <c r="C96" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="32"/>
+      <c r="F96" s="17"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="11"/>
+      <c r="C97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" s="33"/>
+      <c r="F97" s="17"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="11"/>
+      <c r="C98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="33"/>
+      <c r="F98" s="17"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="11"/>
+      <c r="C99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="33"/>
+      <c r="F99" s="17"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="11"/>
+      <c r="C100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" s="33"/>
+      <c r="F100" s="17"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="11"/>
+      <c r="C101" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="33"/>
+      <c r="F101" s="17"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="11"/>
+      <c r="C102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="33"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="11"/>
+      <c r="C103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="33"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="11"/>
+      <c r="C104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="33"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="11"/>
+      <c r="C105" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="33"/>
+    </row>
+    <row r="106" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="11"/>
+      <c r="C106" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="34"/>
+    </row>
+    <row r="107" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="14" t="s">
+      <c r="C107" s="37"/>
+      <c r="D107" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="E107" s="29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="5" t="s">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="11"/>
+      <c r="C108" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="16"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="3" t="s">
+      <c r="D108" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="32"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="11"/>
+      <c r="C109" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="3" t="s">
+      <c r="D109" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="33"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="11"/>
+      <c r="C110" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="17"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="3" t="s">
+      <c r="D110" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="33"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="11"/>
+      <c r="C111" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="17"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="3" t="s">
+      <c r="D111" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="33"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="11"/>
+      <c r="C112" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="17"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="3" t="s">
+      <c r="D112" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" s="33"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="11"/>
+      <c r="C113" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="3" t="s">
+      <c r="D113" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" s="33"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="11"/>
+      <c r="C114" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="17"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="3" t="s">
+      <c r="D114" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" s="33"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="11"/>
+      <c r="C115" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="17"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="3" t="s">
+      <c r="D115" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" s="33"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="11"/>
+      <c r="C116" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="17"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="3" t="s">
+      <c r="D116" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="33"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="11"/>
+      <c r="C117" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="17"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="3" t="s">
+      <c r="D117" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" s="33"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="11"/>
+      <c r="C118" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="17"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="3" t="s">
+      <c r="D118" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" s="33"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="11"/>
+      <c r="C119" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="3" t="s">
+      <c r="D119" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="33"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="11"/>
+      <c r="C120" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="17"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="3" t="s">
+      <c r="D120" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E120" s="33"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="11"/>
+      <c r="C121" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="17"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="3" t="s">
+      <c r="D121" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" s="33"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="11"/>
+      <c r="C122" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="17"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="3" t="s">
+      <c r="D122" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" s="33"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="11"/>
+      <c r="C123" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="17"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="3" t="s">
+      <c r="D123" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123" s="33"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="11"/>
+      <c r="C124" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="17"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="3" t="s">
+      <c r="D124" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" s="33"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="11"/>
+      <c r="C125" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="17"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="3" t="s">
+      <c r="D125" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="33"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="11"/>
+      <c r="C126" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="17"/>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
-      <c r="B70" s="4" t="s">
+      <c r="D126" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E126" s="33"/>
+    </row>
+    <row r="127" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="12"/>
+      <c r="C127" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="20"/>
+      <c r="D127" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A50:B50"/>
+  <mergeCells count="11">
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:C69"/>
   </mergeCells>
+  <conditionalFormatting sqref="D8:D18 D20:D32 D46:D65">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="NTY">
+      <formula>NOT(ISERROR(SEARCH("NTY",D8)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D44">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="NTY">
+      <formula>NOT(ISERROR(SEARCH("NTY",D34)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70:D80 D82:D94 D108:D127">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="NTY">
+      <formula>NOT(ISERROR(SEARCH("NTY",D70)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96:D106">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="NTY">
+      <formula>NOT(ISERROR(SEARCH("NTY",D96)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E18 E20:E32 E34:E44 E46:E65 E70:E80 E82:E94 E96:E106 E108:E127">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(E8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>